--- a/outputs-HGR-r202/train-g__Acutalibacter_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Acutalibacter_split_pruned.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="506">
   <si>
     <t>Row</t>
   </si>
@@ -937,6 +939,603 @@
   </si>
   <si>
     <t>label_GCF_900048895_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_130.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_135.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_137.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_140.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_141.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_145.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_148.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_151.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_152.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_154.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_157.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_8.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_900048895_2.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_900048895_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_132.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_134.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_136.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_138.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_142.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_144.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_146.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_153.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_158.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_159.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_160.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_161.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1191_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS471_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS553_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS581_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1101_7.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_900048895_5.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_900048895_7.fasta</t>
   </si>
 </sst>
 </file>
@@ -957,7 +1556,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -971,11 +1570,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -983,6 +1586,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9777,4 +10384,5873 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I101"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="true"/>
+    <col min="2" max="2" width="27.140625" customWidth="true"/>
+    <col min="3" max="3" width="27.140625" customWidth="true"/>
+    <col min="4" max="4" width="27.140625" customWidth="true"/>
+    <col min="5" max="5" width="27.140625" customWidth="true"/>
+    <col min="6" max="6" width="27.140625" customWidth="true"/>
+    <col min="7" max="7" width="26" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2">
+        <v>0.9046888520010945</v>
+      </c>
+      <c r="C2">
+        <v>0.0073656891442806993</v>
+      </c>
+      <c r="D2">
+        <v>0.058567643806926764</v>
+      </c>
+      <c r="E2">
+        <v>0.0032926857930590742</v>
+      </c>
+      <c r="F2">
+        <v>0.023912593395351258</v>
+      </c>
+      <c r="G2">
+        <v>0.0021725358592877986</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3">
+        <v>0.61443056486738934</v>
+      </c>
+      <c r="C3">
+        <v>0.067492145353241315</v>
+      </c>
+      <c r="D3">
+        <v>0.052150396838211988</v>
+      </c>
+      <c r="E3">
+        <v>0.20896860163262956</v>
+      </c>
+      <c r="F3">
+        <v>0.055488852639994306</v>
+      </c>
+      <c r="G3">
+        <v>0.0014694386685333706</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4">
+        <v>0.97148437241947916</v>
+      </c>
+      <c r="C4">
+        <v>0.004624782182357407</v>
+      </c>
+      <c r="D4">
+        <v>0.0073010487216901704</v>
+      </c>
+      <c r="E4">
+        <v>0.0016967239097032323</v>
+      </c>
+      <c r="F4">
+        <v>0.012999718057132353</v>
+      </c>
+      <c r="G4">
+        <v>0.0018933547096376109</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5">
+        <v>0.89654479218978811</v>
+      </c>
+      <c r="C5">
+        <v>0.0044658749211661779</v>
+      </c>
+      <c r="D5">
+        <v>0.061704856974648448</v>
+      </c>
+      <c r="E5">
+        <v>0.0045300423373601795</v>
+      </c>
+      <c r="F5">
+        <v>0.031374324690042421</v>
+      </c>
+      <c r="G5">
+        <v>0.0013801088869946267</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6">
+        <v>0.70043812088756219</v>
+      </c>
+      <c r="C6">
+        <v>0.0038802821570270846</v>
+      </c>
+      <c r="D6">
+        <v>0.17670510698555419</v>
+      </c>
+      <c r="E6">
+        <v>0.090194448685316425</v>
+      </c>
+      <c r="F6">
+        <v>0.027595287495231383</v>
+      </c>
+      <c r="G6">
+        <v>0.0011867537893088145</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7">
+        <v>0.86627485272276361</v>
+      </c>
+      <c r="C7">
+        <v>0.0033678540957578214</v>
+      </c>
+      <c r="D7">
+        <v>0.10269996048358354</v>
+      </c>
+      <c r="E7">
+        <v>0.008434379461108879</v>
+      </c>
+      <c r="F7">
+        <v>0.01368805918909673</v>
+      </c>
+      <c r="G7">
+        <v>0.0055348940476893857</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8">
+        <v>0.84955363845254706</v>
+      </c>
+      <c r="C8">
+        <v>0.0038703854233277952</v>
+      </c>
+      <c r="D8">
+        <v>0.12587324517917114</v>
+      </c>
+      <c r="E8">
+        <v>0.0078707629980343721</v>
+      </c>
+      <c r="F8">
+        <v>0.011032191822157308</v>
+      </c>
+      <c r="G8">
+        <v>0.0017997761247623247</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9">
+        <v>0.86133739286035016</v>
+      </c>
+      <c r="C9">
+        <v>0.00093203834898542492</v>
+      </c>
+      <c r="D9">
+        <v>0.0031225989691138901</v>
+      </c>
+      <c r="E9">
+        <v>2.0042176532603269e-05</v>
+      </c>
+      <c r="F9">
+        <v>0.13458353265652712</v>
+      </c>
+      <c r="G9">
+        <v>4.3949884907638617e-06</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10">
+        <v>0.91607618415978254</v>
+      </c>
+      <c r="C10">
+        <v>0.022930856984297837</v>
+      </c>
+      <c r="D10">
+        <v>0.0035019099109607531</v>
+      </c>
+      <c r="E10">
+        <v>0.00035006861039288303</v>
+      </c>
+      <c r="F10">
+        <v>0.057091154542065196</v>
+      </c>
+      <c r="G10">
+        <v>4.9825792500886236e-05</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11">
+        <v>0.96357813405187553</v>
+      </c>
+      <c r="C11">
+        <v>0.0018979868449433986</v>
+      </c>
+      <c r="D11">
+        <v>0.014488686310125927</v>
+      </c>
+      <c r="E11">
+        <v>0.00057621274760476444</v>
+      </c>
+      <c r="F11">
+        <v>0.018138859343875498</v>
+      </c>
+      <c r="G11">
+        <v>0.0013201207015748635</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12">
+        <v>0.85476813104473282</v>
+      </c>
+      <c r="C12">
+        <v>0.016403873498172288</v>
+      </c>
+      <c r="D12">
+        <v>0.019430417770266106</v>
+      </c>
+      <c r="E12">
+        <v>0.018124699676269198</v>
+      </c>
+      <c r="F12">
+        <v>0.089028347596568136</v>
+      </c>
+      <c r="G12">
+        <v>0.0022445304139914004</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13">
+        <v>0.87638834815519495</v>
+      </c>
+      <c r="C13">
+        <v>0.0015635565895087222</v>
+      </c>
+      <c r="D13">
+        <v>0.059088190840769668</v>
+      </c>
+      <c r="E13">
+        <v>0.0048223570145738857</v>
+      </c>
+      <c r="F13">
+        <v>0.054603412113705736</v>
+      </c>
+      <c r="G13">
+        <v>0.003534135286246911</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14">
+        <v>0.91935766181446266</v>
+      </c>
+      <c r="C14">
+        <v>0.0013274822040521019</v>
+      </c>
+      <c r="D14">
+        <v>0.050630012824477426</v>
+      </c>
+      <c r="E14">
+        <v>0.0027276711530989212</v>
+      </c>
+      <c r="F14">
+        <v>0.022932399058443981</v>
+      </c>
+      <c r="G14">
+        <v>0.0030247729454648572</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15">
+        <v>0.91223762511255591</v>
+      </c>
+      <c r="C15">
+        <v>0.013615536027294078</v>
+      </c>
+      <c r="D15">
+        <v>0.045010420673420815</v>
+      </c>
+      <c r="E15">
+        <v>0.010225629736355874</v>
+      </c>
+      <c r="F15">
+        <v>0.018434454900513854</v>
+      </c>
+      <c r="G15">
+        <v>0.00047633354985944992</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16">
+        <v>0.73699144166142028</v>
+      </c>
+      <c r="C16">
+        <v>0.065338011155151809</v>
+      </c>
+      <c r="D16">
+        <v>0.11037436882695585</v>
+      </c>
+      <c r="E16">
+        <v>7.6828310616493318e-05</v>
+      </c>
+      <c r="F16">
+        <v>0.087216161458390937</v>
+      </c>
+      <c r="G16">
+        <v>3.1885874646314653e-06</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17">
+        <v>0.74400789663523892</v>
+      </c>
+      <c r="C17">
+        <v>0.0019730575163782</v>
+      </c>
+      <c r="D17">
+        <v>0.026645975521876721</v>
+      </c>
+      <c r="E17">
+        <v>6.2825763667587062e-05</v>
+      </c>
+      <c r="F17">
+        <v>0.22729407754353054</v>
+      </c>
+      <c r="G17">
+        <v>1.6167019308190947e-05</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18">
+        <v>0.91623582502109702</v>
+      </c>
+      <c r="C18">
+        <v>0.0070956347099168596</v>
+      </c>
+      <c r="D18">
+        <v>0.023679997812574006</v>
+      </c>
+      <c r="E18">
+        <v>0.0022282268580049126</v>
+      </c>
+      <c r="F18">
+        <v>0.049773840567891095</v>
+      </c>
+      <c r="G18">
+        <v>0.00098647503051605464</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19">
+        <v>0.95495466626440051</v>
+      </c>
+      <c r="C19">
+        <v>0.010296351054458279</v>
+      </c>
+      <c r="D19">
+        <v>0.011818889069202199</v>
+      </c>
+      <c r="E19">
+        <v>0.0019478986053751669</v>
+      </c>
+      <c r="F19">
+        <v>0.017498568751661309</v>
+      </c>
+      <c r="G19">
+        <v>0.0034836262549026446</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20">
+        <v>0.26327550167257846</v>
+      </c>
+      <c r="C20">
+        <v>8.301910281624672e-06</v>
+      </c>
+      <c r="D20">
+        <v>0.29426721354008845</v>
+      </c>
+      <c r="E20">
+        <v>0.12563541262528413</v>
+      </c>
+      <c r="F20">
+        <v>0.25440332013518985</v>
+      </c>
+      <c r="G20">
+        <v>0.062410250116577637</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21">
+        <v>0.87325944345402318</v>
+      </c>
+      <c r="C21">
+        <v>3.2915521886521411e-05</v>
+      </c>
+      <c r="D21">
+        <v>0.11592026945272199</v>
+      </c>
+      <c r="E21">
+        <v>0.00034100786316309194</v>
+      </c>
+      <c r="F21">
+        <v>0.0098555451671257961</v>
+      </c>
+      <c r="G21">
+        <v>0.00059081854107946282</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22">
+        <v>0.81748275489598243</v>
+      </c>
+      <c r="C22">
+        <v>0.00029105131796072114</v>
+      </c>
+      <c r="D22">
+        <v>0.13194983097191265</v>
+      </c>
+      <c r="E22">
+        <v>0.0068540080487928222</v>
+      </c>
+      <c r="F22">
+        <v>0.042571579616329298</v>
+      </c>
+      <c r="G22">
+        <v>0.00085077514902209557</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23">
+        <v>0.87198869538893642</v>
+      </c>
+      <c r="C23">
+        <v>9.7797235828938425e-07</v>
+      </c>
+      <c r="D23">
+        <v>0.11489585715667058</v>
+      </c>
+      <c r="E23">
+        <v>0.00089945300530863692</v>
+      </c>
+      <c r="F23">
+        <v>0.0099767044807991777</v>
+      </c>
+      <c r="G23">
+        <v>0.0022383119959269852</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24">
+        <v>0.93176406585184945</v>
+      </c>
+      <c r="C24">
+        <v>0.00038409163879378358</v>
+      </c>
+      <c r="D24">
+        <v>0.057917596892260004</v>
+      </c>
+      <c r="E24">
+        <v>0.00049326230915889625</v>
+      </c>
+      <c r="F24">
+        <v>0.0032180601016327495</v>
+      </c>
+      <c r="G24">
+        <v>0.0062229232063049193</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25">
+        <v>0.9109554406460354</v>
+      </c>
+      <c r="C25">
+        <v>8.2127250362955934e-05</v>
+      </c>
+      <c r="D25">
+        <v>0.063421812164026051</v>
+      </c>
+      <c r="E25">
+        <v>0.0018719121445977243</v>
+      </c>
+      <c r="F25">
+        <v>0.023403405551622909</v>
+      </c>
+      <c r="G25">
+        <v>0.00026530224335502843</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26">
+        <v>0.91862681733377061</v>
+      </c>
+      <c r="C26">
+        <v>0.0022324995196401536</v>
+      </c>
+      <c r="D26">
+        <v>0.034925275525740082</v>
+      </c>
+      <c r="E26">
+        <v>0.025984884838183092</v>
+      </c>
+      <c r="F26">
+        <v>0.016818183249323864</v>
+      </c>
+      <c r="G26">
+        <v>0.0014123395333423619</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27">
+        <v>0.62016716987172071</v>
+      </c>
+      <c r="C27">
+        <v>1.6373280942246826e-05</v>
+      </c>
+      <c r="D27">
+        <v>0.36971425995254825</v>
+      </c>
+      <c r="E27">
+        <v>0.00028783700863246593</v>
+      </c>
+      <c r="F27">
+        <v>0.0017631672855438021</v>
+      </c>
+      <c r="G27">
+        <v>0.0080511926006125271</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28">
+        <v>0.97207468833370902</v>
+      </c>
+      <c r="C28">
+        <v>0.0064903114609112817</v>
+      </c>
+      <c r="D28">
+        <v>0.0036559750355098313</v>
+      </c>
+      <c r="E28">
+        <v>0.0042283098652749675</v>
+      </c>
+      <c r="F28">
+        <v>0.0101028358499889</v>
+      </c>
+      <c r="G28">
+        <v>0.0034478794546062052</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29">
+        <v>0.92961304434038294</v>
+      </c>
+      <c r="C29">
+        <v>0.0020072554951325334</v>
+      </c>
+      <c r="D29">
+        <v>0.01430280245787793</v>
+      </c>
+      <c r="E29">
+        <v>0.0067442936790226065</v>
+      </c>
+      <c r="F29">
+        <v>0.043934722862831413</v>
+      </c>
+      <c r="G29">
+        <v>0.0033978811647525599</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30">
+        <v>0.96538638835869883</v>
+      </c>
+      <c r="C30">
+        <v>0.00038090912315802845</v>
+      </c>
+      <c r="D30">
+        <v>0.024885180470649231</v>
+      </c>
+      <c r="E30">
+        <v>0.0005790228438291487</v>
+      </c>
+      <c r="F30">
+        <v>0.0045499659263385402</v>
+      </c>
+      <c r="G30">
+        <v>0.0042185332773262089</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31">
+        <v>0.91197568828268627</v>
+      </c>
+      <c r="C31">
+        <v>0.010589158892471539</v>
+      </c>
+      <c r="D31">
+        <v>0.046351793282060537</v>
+      </c>
+      <c r="E31">
+        <v>0.01061892346523175</v>
+      </c>
+      <c r="F31">
+        <v>0.015229765307977674</v>
+      </c>
+      <c r="G31">
+        <v>0.0052346707695723636</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32">
+        <v>0.86661358099059782</v>
+      </c>
+      <c r="C32">
+        <v>9.5153060926481432e-05</v>
+      </c>
+      <c r="D32">
+        <v>0.1276877875900011</v>
+      </c>
+      <c r="E32">
+        <v>0.00012223729179542065</v>
+      </c>
+      <c r="F32">
+        <v>0.0016203272286784308</v>
+      </c>
+      <c r="G32">
+        <v>0.0038609138380007782</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33">
+        <v>0.94950129482417123</v>
+      </c>
+      <c r="C33">
+        <v>0.0024979165851472707</v>
+      </c>
+      <c r="D33">
+        <v>0.032759717430512349</v>
+      </c>
+      <c r="E33">
+        <v>0.0036731853880959649</v>
+      </c>
+      <c r="F33">
+        <v>0.0093667405458679933</v>
+      </c>
+      <c r="G33">
+        <v>0.0022011452262052041</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34">
+        <v>0.9689471890950927</v>
+      </c>
+      <c r="C34">
+        <v>0.0019250668129860884</v>
+      </c>
+      <c r="D34">
+        <v>0.018746826070633354</v>
+      </c>
+      <c r="E34">
+        <v>0.0026419426666624817</v>
+      </c>
+      <c r="F34">
+        <v>0.0047845437626221673</v>
+      </c>
+      <c r="G34">
+        <v>0.0029544315920031323</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35">
+        <v>0.85101445761284689</v>
+      </c>
+      <c r="C35">
+        <v>0.033808633168806654</v>
+      </c>
+      <c r="D35">
+        <v>0.038762721517953798</v>
+      </c>
+      <c r="E35">
+        <v>0.034745698224346908</v>
+      </c>
+      <c r="F35">
+        <v>0.035886253272616957</v>
+      </c>
+      <c r="G35">
+        <v>0.0057822362034288454</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36">
+        <v>0.92881078951534546</v>
+      </c>
+      <c r="C36">
+        <v>0.01472026991783971</v>
+      </c>
+      <c r="D36">
+        <v>0.035709846778709621</v>
+      </c>
+      <c r="E36">
+        <v>0.0027187074130757896</v>
+      </c>
+      <c r="F36">
+        <v>0.016128186822800698</v>
+      </c>
+      <c r="G36">
+        <v>0.0019121995522287368</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37">
+        <v>0.94544072139662394</v>
+      </c>
+      <c r="C37">
+        <v>0.00021724996199701385</v>
+      </c>
+      <c r="D37">
+        <v>0.037668945297200065</v>
+      </c>
+      <c r="E37">
+        <v>0.00099853168280013998</v>
+      </c>
+      <c r="F37">
+        <v>0.014563806972951692</v>
+      </c>
+      <c r="G37">
+        <v>0.0011107446884272224</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38">
+        <v>0.94803211767897122</v>
+      </c>
+      <c r="C38">
+        <v>0.00011580562196413131</v>
+      </c>
+      <c r="D38">
+        <v>0.035170190192356142</v>
+      </c>
+      <c r="E38">
+        <v>0.0014178520086704106</v>
+      </c>
+      <c r="F38">
+        <v>0.010735832725061378</v>
+      </c>
+      <c r="G38">
+        <v>0.004528201772976706</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39">
+        <v>0.92341287839876462</v>
+      </c>
+      <c r="C39">
+        <v>0.00091097437705066494</v>
+      </c>
+      <c r="D39">
+        <v>0.038308682334185898</v>
+      </c>
+      <c r="E39">
+        <v>0.0053494338688562636</v>
+      </c>
+      <c r="F39">
+        <v>0.028314568575546661</v>
+      </c>
+      <c r="G39">
+        <v>0.003703462445595997</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40">
+        <v>0.82094142140115367</v>
+      </c>
+      <c r="C40">
+        <v>6.1782362821685821e-05</v>
+      </c>
+      <c r="D40">
+        <v>0.17509241724208388</v>
+      </c>
+      <c r="E40">
+        <v>3.8837222425327547e-05</v>
+      </c>
+      <c r="F40">
+        <v>0.0022653487235309985</v>
+      </c>
+      <c r="G40">
+        <v>0.0016001930479844497</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41">
+        <v>0.79124885342107576</v>
+      </c>
+      <c r="C41">
+        <v>2.749544122786388e-05</v>
+      </c>
+      <c r="D41">
+        <v>0.16216719952338676</v>
+      </c>
+      <c r="E41">
+        <v>0.009959700140631805</v>
+      </c>
+      <c r="F41">
+        <v>0.0076703148699675721</v>
+      </c>
+      <c r="G41">
+        <v>0.028926436603710175</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42">
+        <v>0.66362269337837887</v>
+      </c>
+      <c r="C42">
+        <v>0.024125221915930011</v>
+      </c>
+      <c r="D42">
+        <v>0.2124693217328322</v>
+      </c>
+      <c r="E42">
+        <v>0.059932758023013795</v>
+      </c>
+      <c r="F42">
+        <v>0.037140119434266233</v>
+      </c>
+      <c r="G42">
+        <v>0.0027098855155787151</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43">
+        <v>1.0052141909423288e-06</v>
+      </c>
+      <c r="C43">
+        <v>0.99017188007348245</v>
+      </c>
+      <c r="D43">
+        <v>1.4775003564525445e-05</v>
+      </c>
+      <c r="E43">
+        <v>0.008978769926041465</v>
+      </c>
+      <c r="F43">
+        <v>0.00038713539094393525</v>
+      </c>
+      <c r="G43">
+        <v>0.00044643439177670076</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44">
+        <v>4.8109116355957097e-06</v>
+      </c>
+      <c r="C44">
+        <v>0.97245627133093382</v>
+      </c>
+      <c r="D44">
+        <v>8.5356716078694568e-06</v>
+      </c>
+      <c r="E44">
+        <v>0.027170287164379386</v>
+      </c>
+      <c r="F44">
+        <v>0.00015474542768774481</v>
+      </c>
+      <c r="G44">
+        <v>0.00020534949375544513</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45">
+        <v>1.1955141890199593e-05</v>
+      </c>
+      <c r="C45">
+        <v>0.97685707145262424</v>
+      </c>
+      <c r="D45">
+        <v>8.2367861168703337e-06</v>
+      </c>
+      <c r="E45">
+        <v>0.022819463352679224</v>
+      </c>
+      <c r="F45">
+        <v>7.6179758179906e-05</v>
+      </c>
+      <c r="G45">
+        <v>0.00022709350850954094</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46">
+        <v>0.00034345322202108123</v>
+      </c>
+      <c r="C46">
+        <v>0.98509803260778883</v>
+      </c>
+      <c r="D46">
+        <v>3.9087169583178907e-07</v>
+      </c>
+      <c r="E46">
+        <v>0.014495694273703742</v>
+      </c>
+      <c r="F46">
+        <v>5.7605844495752281e-05</v>
+      </c>
+      <c r="G46">
+        <v>4.8231802946483721e-06</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47">
+        <v>0.002767935207787986</v>
+      </c>
+      <c r="C47">
+        <v>0.71786327364707436</v>
+      </c>
+      <c r="D47">
+        <v>0.0057321482310511915</v>
+      </c>
+      <c r="E47">
+        <v>0.20264150383687879</v>
+      </c>
+      <c r="F47">
+        <v>0.063535357563381564</v>
+      </c>
+      <c r="G47">
+        <v>0.0074597815138259275</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48">
+        <v>3.0443193458939684e-05</v>
+      </c>
+      <c r="C48">
+        <v>0.91501112656052674</v>
+      </c>
+      <c r="D48">
+        <v>4.5011137183021764e-05</v>
+      </c>
+      <c r="E48">
+        <v>0.081955405398580664</v>
+      </c>
+      <c r="F48">
+        <v>0.0027214366957184623</v>
+      </c>
+      <c r="G48">
+        <v>0.00023657701453220318</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49">
+        <v>0.00064338712214435814</v>
+      </c>
+      <c r="C49">
+        <v>0.96136073625025298</v>
+      </c>
+      <c r="D49">
+        <v>1.490959050286607e-06</v>
+      </c>
+      <c r="E49">
+        <v>0.037764428256558083</v>
+      </c>
+      <c r="F49">
+        <v>0.00022462855928256551</v>
+      </c>
+      <c r="G49">
+        <v>5.3288527116472399e-06</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50">
+        <v>4.2147294298927189e-06</v>
+      </c>
+      <c r="C50">
+        <v>0.97648986755979694</v>
+      </c>
+      <c r="D50">
+        <v>1.985228267425617e-05</v>
+      </c>
+      <c r="E50">
+        <v>0.02266394417991437</v>
+      </c>
+      <c r="F50">
+        <v>0.00010998065310137386</v>
+      </c>
+      <c r="G50">
+        <v>0.00071214059508323561</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51">
+        <v>0.0154152626789817</v>
+      </c>
+      <c r="C51">
+        <v>0.68305308750599081</v>
+      </c>
+      <c r="D51">
+        <v>0.029743465495814039</v>
+      </c>
+      <c r="E51">
+        <v>0.206733374043858</v>
+      </c>
+      <c r="F51">
+        <v>0.059213270230547031</v>
+      </c>
+      <c r="G51">
+        <v>0.0058415400448083516</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52">
+        <v>0.045811131570295309</v>
+      </c>
+      <c r="C52">
+        <v>0.67609581346319414</v>
+      </c>
+      <c r="D52">
+        <v>0.00068948226709620523</v>
+      </c>
+      <c r="E52">
+        <v>0.24878380145829282</v>
+      </c>
+      <c r="F52">
+        <v>0.028321275578944319</v>
+      </c>
+      <c r="G52">
+        <v>0.00029849566217709199</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53">
+        <v>0.000583301325271822</v>
+      </c>
+      <c r="C53">
+        <v>0.86064807280090938</v>
+      </c>
+      <c r="D53">
+        <v>5.4407431511774801e-05</v>
+      </c>
+      <c r="E53">
+        <v>0.13495566097844539</v>
+      </c>
+      <c r="F53">
+        <v>0.0037426291836280537</v>
+      </c>
+      <c r="G53">
+        <v>1.5928280233573574e-05</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54">
+        <v>1.7629993555932494e-06</v>
+      </c>
+      <c r="C54">
+        <v>0.99258433728253603</v>
+      </c>
+      <c r="D54">
+        <v>7.7490867966182399e-05</v>
+      </c>
+      <c r="E54">
+        <v>0.0066083317418579417</v>
+      </c>
+      <c r="F54">
+        <v>0.00015589111320867376</v>
+      </c>
+      <c r="G54">
+        <v>0.00057218599507550681</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55">
+        <v>0.029758659052537596</v>
+      </c>
+      <c r="C55">
+        <v>0.048376237790638786</v>
+      </c>
+      <c r="D55">
+        <v>0.07364944362748671</v>
+      </c>
+      <c r="E55">
+        <v>0.76922384884611772</v>
+      </c>
+      <c r="F55">
+        <v>0.034718114906434519</v>
+      </c>
+      <c r="G55">
+        <v>0.044273695776784805</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56">
+        <v>0.7488001793765342</v>
+      </c>
+      <c r="C56">
+        <v>0.00080115265900710026</v>
+      </c>
+      <c r="D56">
+        <v>0.20804946085583961</v>
+      </c>
+      <c r="E56">
+        <v>0.0050430098522770148</v>
+      </c>
+      <c r="F56">
+        <v>0.031743665059557523</v>
+      </c>
+      <c r="G56">
+        <v>0.0055625321967844414</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B57">
+        <v>0.22292371074228973</v>
+      </c>
+      <c r="C57">
+        <v>0.050884903736538832</v>
+      </c>
+      <c r="D57">
+        <v>0.30477555570787168</v>
+      </c>
+      <c r="E57">
+        <v>0.2108802891127253</v>
+      </c>
+      <c r="F57">
+        <v>0.1715716937980184</v>
+      </c>
+      <c r="G57">
+        <v>0.038963846902556151</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58">
+        <v>0.089171423207397696</v>
+      </c>
+      <c r="C58">
+        <v>0.056388754386990703</v>
+      </c>
+      <c r="D58">
+        <v>0.79346421301413328</v>
+      </c>
+      <c r="E58">
+        <v>0.0071639418661806316</v>
+      </c>
+      <c r="F58">
+        <v>0.022666509568415292</v>
+      </c>
+      <c r="G58">
+        <v>0.03114515795688242</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59">
+        <v>0.0015078000871693365</v>
+      </c>
+      <c r="C59">
+        <v>0.0004191219891693197</v>
+      </c>
+      <c r="D59">
+        <v>0.97927653005838322</v>
+      </c>
+      <c r="E59">
+        <v>0.0034712786366876058</v>
+      </c>
+      <c r="F59">
+        <v>0.014576816310879648</v>
+      </c>
+      <c r="G59">
+        <v>0.00074845291771084138</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60">
+        <v>0.43697958571696893</v>
+      </c>
+      <c r="C60">
+        <v>2.5388819893818784e-05</v>
+      </c>
+      <c r="D60">
+        <v>0.51415751652544606</v>
+      </c>
+      <c r="E60">
+        <v>0.000920960558988401</v>
+      </c>
+      <c r="F60">
+        <v>0.046760052952052822</v>
+      </c>
+      <c r="G60">
+        <v>0.0011564954266500402</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61">
+        <v>0.0037549416806452497</v>
+      </c>
+      <c r="C61">
+        <v>0.0010286716114480171</v>
+      </c>
+      <c r="D61">
+        <v>0.96112854399716086</v>
+      </c>
+      <c r="E61">
+        <v>0.0083876432479812798</v>
+      </c>
+      <c r="F61">
+        <v>0.021744688413486972</v>
+      </c>
+      <c r="G61">
+        <v>0.0039555110492775708</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62">
+        <v>0.55529594813141958</v>
+      </c>
+      <c r="C62">
+        <v>3.688302548706445e-05</v>
+      </c>
+      <c r="D62">
+        <v>0.42230323927444796</v>
+      </c>
+      <c r="E62">
+        <v>0.0019816115856697938</v>
+      </c>
+      <c r="F62">
+        <v>0.016588376834602701</v>
+      </c>
+      <c r="G62">
+        <v>0.0037939411483730377</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63">
+        <v>0.053278499986086206</v>
+      </c>
+      <c r="C63">
+        <v>0.0022014436598714313</v>
+      </c>
+      <c r="D63">
+        <v>0.86020931765090858</v>
+      </c>
+      <c r="E63">
+        <v>0.0069112056563500049</v>
+      </c>
+      <c r="F63">
+        <v>0.063702592618003984</v>
+      </c>
+      <c r="G63">
+        <v>0.013696940428779801</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64">
+        <v>0.00071519345086031309</v>
+      </c>
+      <c r="C64">
+        <v>0.00076589897940425387</v>
+      </c>
+      <c r="D64">
+        <v>0.97175553772050771</v>
+      </c>
+      <c r="E64">
+        <v>0.0069595203580434459</v>
+      </c>
+      <c r="F64">
+        <v>0.016502529171635576</v>
+      </c>
+      <c r="G64">
+        <v>0.0033013203195488955</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65">
+        <v>0.0034591884814774133</v>
+      </c>
+      <c r="C65">
+        <v>0.00047907439457357977</v>
+      </c>
+      <c r="D65">
+        <v>0.98560670006891016</v>
+      </c>
+      <c r="E65">
+        <v>0.00096367073883703736</v>
+      </c>
+      <c r="F65">
+        <v>0.0026602940990918715</v>
+      </c>
+      <c r="G65">
+        <v>0.0068310722171099729</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66">
+        <v>0.016838054573492047</v>
+      </c>
+      <c r="C66">
+        <v>0.0065798594341962904</v>
+      </c>
+      <c r="D66">
+        <v>0.87463356695680683</v>
+      </c>
+      <c r="E66">
+        <v>0.019225490501827765</v>
+      </c>
+      <c r="F66">
+        <v>0.073978117712465402</v>
+      </c>
+      <c r="G66">
+        <v>0.0087449108212117928</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67">
+        <v>0.00095383536347333736</v>
+      </c>
+      <c r="C67">
+        <v>0.00022834532617284543</v>
+      </c>
+      <c r="D67">
+        <v>0.97258966385773205</v>
+      </c>
+      <c r="E67">
+        <v>0.0101042059875639</v>
+      </c>
+      <c r="F67">
+        <v>0.014814924829947168</v>
+      </c>
+      <c r="G67">
+        <v>0.0013090246351106325</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68">
+        <v>0.056023599184706806</v>
+      </c>
+      <c r="C68">
+        <v>0.0039661064258005724</v>
+      </c>
+      <c r="D68">
+        <v>0.88914802734161891</v>
+      </c>
+      <c r="E68">
+        <v>0.014365670171078234</v>
+      </c>
+      <c r="F68">
+        <v>0.019539965216081596</v>
+      </c>
+      <c r="G68">
+        <v>0.016956631660714056</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B69">
+        <v>0.051544077506744251</v>
+      </c>
+      <c r="C69">
+        <v>0.00067736843083020259</v>
+      </c>
+      <c r="D69">
+        <v>0.90696778679872514</v>
+      </c>
+      <c r="E69">
+        <v>0.0066720068515914843</v>
+      </c>
+      <c r="F69">
+        <v>0.029216970723346475</v>
+      </c>
+      <c r="G69">
+        <v>0.004921789688762457</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70">
+        <v>7.6694782474472553e-05</v>
+      </c>
+      <c r="C70">
+        <v>6.1429312132866548e-05</v>
+      </c>
+      <c r="D70">
+        <v>0.98716105810754418</v>
+      </c>
+      <c r="E70">
+        <v>0.002407460909218122</v>
+      </c>
+      <c r="F70">
+        <v>0.0079876690328873918</v>
+      </c>
+      <c r="G70">
+        <v>0.0023056878557430912</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71">
+        <v>0.0017892576164825328</v>
+      </c>
+      <c r="C71">
+        <v>0.0017718297445651317</v>
+      </c>
+      <c r="D71">
+        <v>0.98717218691327491</v>
+      </c>
+      <c r="E71">
+        <v>0.001454775194950784</v>
+      </c>
+      <c r="F71">
+        <v>0.0037981816841910457</v>
+      </c>
+      <c r="G71">
+        <v>0.0040137688465354841</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B72">
+        <v>0.026965826158262939</v>
+      </c>
+      <c r="C72">
+        <v>0.00017488765989316876</v>
+      </c>
+      <c r="D72">
+        <v>0.95099191536248073</v>
+      </c>
+      <c r="E72">
+        <v>0.0017600366384842936</v>
+      </c>
+      <c r="F72">
+        <v>0.018261637498569284</v>
+      </c>
+      <c r="G72">
+        <v>0.0018456966823095877</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73">
+        <v>0.61777948552337891</v>
+      </c>
+      <c r="C73">
+        <v>1.7099146418318389e-06</v>
+      </c>
+      <c r="D73">
+        <v>0.35408523361158861</v>
+      </c>
+      <c r="E73">
+        <v>0.0039470278745743596</v>
+      </c>
+      <c r="F73">
+        <v>0.0043581989747455462</v>
+      </c>
+      <c r="G73">
+        <v>0.019828344101070941</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74">
+        <v>0.20613415636404789</v>
+      </c>
+      <c r="C74">
+        <v>9.5027557705171561e-06</v>
+      </c>
+      <c r="D74">
+        <v>0.72164775130137504</v>
+      </c>
+      <c r="E74">
+        <v>0.0099002655733014793</v>
+      </c>
+      <c r="F74">
+        <v>0.016322661967936733</v>
+      </c>
+      <c r="G74">
+        <v>0.045985662037568348</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B75">
+        <v>0.00053363581010291603</v>
+      </c>
+      <c r="C75">
+        <v>0.044833773062390933</v>
+      </c>
+      <c r="D75">
+        <v>0.0015547044113960226</v>
+      </c>
+      <c r="E75">
+        <v>0.9110874473122943</v>
+      </c>
+      <c r="F75">
+        <v>0.023055626647517563</v>
+      </c>
+      <c r="G75">
+        <v>0.018934812756298332</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B76">
+        <v>0.00024641499595235285</v>
+      </c>
+      <c r="C76">
+        <v>0.054655883556732988</v>
+      </c>
+      <c r="D76">
+        <v>0.00072721968112983253</v>
+      </c>
+      <c r="E76">
+        <v>0.88787084633312752</v>
+      </c>
+      <c r="F76">
+        <v>0.039363364561517851</v>
+      </c>
+      <c r="G76">
+        <v>0.017136270871539544</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77">
+        <v>0.0089565850136986321</v>
+      </c>
+      <c r="C77">
+        <v>0.017843097421762759</v>
+      </c>
+      <c r="D77">
+        <v>0.0037727858219607779</v>
+      </c>
+      <c r="E77">
+        <v>0.86675645140527058</v>
+      </c>
+      <c r="F77">
+        <v>0.058987355431392184</v>
+      </c>
+      <c r="G77">
+        <v>0.043683724905914961</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B78">
+        <v>0.004285269726349749</v>
+      </c>
+      <c r="C78">
+        <v>0.022992353439081775</v>
+      </c>
+      <c r="D78">
+        <v>3.0273838625461649e-05</v>
+      </c>
+      <c r="E78">
+        <v>0.96645476600101832</v>
+      </c>
+      <c r="F78">
+        <v>0.0028025162430946487</v>
+      </c>
+      <c r="G78">
+        <v>0.0034348207518300352</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79">
+        <v>0.00043357159391114883</v>
+      </c>
+      <c r="C79">
+        <v>0.14883321126431778</v>
+      </c>
+      <c r="D79">
+        <v>0.018409694438121762</v>
+      </c>
+      <c r="E79">
+        <v>0.60946293754694558</v>
+      </c>
+      <c r="F79">
+        <v>0.21587233614948176</v>
+      </c>
+      <c r="G79">
+        <v>0.0069882490072218743</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80">
+        <v>0.00061424280487790486</v>
+      </c>
+      <c r="C80">
+        <v>0.075219526911875514</v>
+      </c>
+      <c r="D80">
+        <v>0.0011883880814658246</v>
+      </c>
+      <c r="E80">
+        <v>0.87910124680268165</v>
+      </c>
+      <c r="F80">
+        <v>0.039377911544033639</v>
+      </c>
+      <c r="G80">
+        <v>0.0044986838550655451</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81">
+        <v>0.008329705783307868</v>
+      </c>
+      <c r="C81">
+        <v>0.011605220767005814</v>
+      </c>
+      <c r="D81">
+        <v>0.0081863849622137528</v>
+      </c>
+      <c r="E81">
+        <v>0.71290968477620997</v>
+      </c>
+      <c r="F81">
+        <v>0.24155985719351894</v>
+      </c>
+      <c r="G81">
+        <v>0.017409146517743633</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82">
+        <v>0.00047786347597989572</v>
+      </c>
+      <c r="C82">
+        <v>0.053703513689097239</v>
+      </c>
+      <c r="D82">
+        <v>0.00045022813581372789</v>
+      </c>
+      <c r="E82">
+        <v>0.91695054886763072</v>
+      </c>
+      <c r="F82">
+        <v>0.02555877845959657</v>
+      </c>
+      <c r="G82">
+        <v>0.0028590673718819422</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83">
+        <v>0.056688362520249197</v>
+      </c>
+      <c r="C83">
+        <v>0.13700987519457763</v>
+      </c>
+      <c r="D83">
+        <v>0.010763563067007688</v>
+      </c>
+      <c r="E83">
+        <v>0.67967940937704474</v>
+      </c>
+      <c r="F83">
+        <v>0.082556920721019292</v>
+      </c>
+      <c r="G83">
+        <v>0.03330186912010151</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B84">
+        <v>0.00063133128464536831</v>
+      </c>
+      <c r="C84">
+        <v>0.074284461552868566</v>
+      </c>
+      <c r="D84">
+        <v>0.0045196797001328566</v>
+      </c>
+      <c r="E84">
+        <v>0.87387134413001832</v>
+      </c>
+      <c r="F84">
+        <v>0.04051767352862503</v>
+      </c>
+      <c r="G84">
+        <v>0.0061755098037098062</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B85">
+        <v>0.25944804796558346</v>
+      </c>
+      <c r="C85">
+        <v>0.098611053987802164</v>
+      </c>
+      <c r="D85">
+        <v>0.0019035992877181873</v>
+      </c>
+      <c r="E85">
+        <v>0.49486469229621494</v>
+      </c>
+      <c r="F85">
+        <v>0.14487325652426442</v>
+      </c>
+      <c r="G85">
+        <v>0.00029934993841675394</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B86">
+        <v>0.10493110120317263</v>
+      </c>
+      <c r="C86">
+        <v>0.31479813255441419</v>
+      </c>
+      <c r="D86">
+        <v>0.09455535159439267</v>
+      </c>
+      <c r="E86">
+        <v>0.19534261587955648</v>
+      </c>
+      <c r="F86">
+        <v>0.28406692000948752</v>
+      </c>
+      <c r="G86">
+        <v>0.0063058787589765951</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87">
+        <v>0.00010609860229739901</v>
+      </c>
+      <c r="C87">
+        <v>0.0091631546473365452</v>
+      </c>
+      <c r="D87">
+        <v>0.00011056577016130356</v>
+      </c>
+      <c r="E87">
+        <v>0.97714462008444869</v>
+      </c>
+      <c r="F87">
+        <v>0.0086570816015213662</v>
+      </c>
+      <c r="G87">
+        <v>0.0048184792942346987</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88">
+        <v>0.00036143677700007233</v>
+      </c>
+      <c r="C88">
+        <v>0.0045216769350018178</v>
+      </c>
+      <c r="D88">
+        <v>0.019232191529744726</v>
+      </c>
+      <c r="E88">
+        <v>0.010608182510450492</v>
+      </c>
+      <c r="F88">
+        <v>0.96513049250012806</v>
+      </c>
+      <c r="G88">
+        <v>0.00014601974767479984</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B89">
+        <v>0.01524133501099004</v>
+      </c>
+      <c r="C89">
+        <v>0.027373342079056808</v>
+      </c>
+      <c r="D89">
+        <v>0.032611844869409226</v>
+      </c>
+      <c r="E89">
+        <v>0.12535586726659437</v>
+      </c>
+      <c r="F89">
+        <v>0.7953984843037385</v>
+      </c>
+      <c r="G89">
+        <v>0.0040191264702110303</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90">
+        <v>0.00019587387515790589</v>
+      </c>
+      <c r="C90">
+        <v>0.0033171557366765843</v>
+      </c>
+      <c r="D90">
+        <v>0.0056711041736099829</v>
+      </c>
+      <c r="E90">
+        <v>0.037558429972486124</v>
+      </c>
+      <c r="F90">
+        <v>0.95036483961152907</v>
+      </c>
+      <c r="G90">
+        <v>0.0028925966305402978</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B91">
+        <v>0.00045358324072741659</v>
+      </c>
+      <c r="C91">
+        <v>0.088824626188887618</v>
+      </c>
+      <c r="D91">
+        <v>0.021150662893909624</v>
+      </c>
+      <c r="E91">
+        <v>0.087050664558187024</v>
+      </c>
+      <c r="F91">
+        <v>0.79815572728392015</v>
+      </c>
+      <c r="G91">
+        <v>0.004364735834368097</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B92">
+        <v>0.023417523488824997</v>
+      </c>
+      <c r="C92">
+        <v>0.0081360335673907585</v>
+      </c>
+      <c r="D92">
+        <v>0.34806266162565547</v>
+      </c>
+      <c r="E92">
+        <v>0.057232079590095179</v>
+      </c>
+      <c r="F92">
+        <v>0.56103652773407342</v>
+      </c>
+      <c r="G92">
+        <v>0.0021151739939600238</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93">
+        <v>0.00029052162087488001</v>
+      </c>
+      <c r="C93">
+        <v>0.0039251414810479801</v>
+      </c>
+      <c r="D93">
+        <v>0.046448964860938267</v>
+      </c>
+      <c r="E93">
+        <v>0.03336108313854539</v>
+      </c>
+      <c r="F93">
+        <v>0.91291017332487157</v>
+      </c>
+      <c r="G93">
+        <v>0.0030641155737218886</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B94">
+        <v>0.001706925151514419</v>
+      </c>
+      <c r="C94">
+        <v>0.0098573549349605591</v>
+      </c>
+      <c r="D94">
+        <v>0.2949747039707451</v>
+      </c>
+      <c r="E94">
+        <v>0.015707024962018354</v>
+      </c>
+      <c r="F94">
+        <v>0.67646475471210255</v>
+      </c>
+      <c r="G94">
+        <v>0.0012892362686591375</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B95">
+        <v>0.80308619592101604</v>
+      </c>
+      <c r="C95">
+        <v>0.0030980864986143069</v>
+      </c>
+      <c r="D95">
+        <v>0.13921482830645959</v>
+      </c>
+      <c r="E95">
+        <v>0.009144475847312792</v>
+      </c>
+      <c r="F95">
+        <v>0.040848401138153904</v>
+      </c>
+      <c r="G95">
+        <v>0.0046080122884433134</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B96">
+        <v>0.55598025723944422</v>
+      </c>
+      <c r="C96">
+        <v>0.065058475745892311</v>
+      </c>
+      <c r="D96">
+        <v>0.14302744993456626</v>
+      </c>
+      <c r="E96">
+        <v>0.084216522715218109</v>
+      </c>
+      <c r="F96">
+        <v>0.14453268577981687</v>
+      </c>
+      <c r="G96">
+        <v>0.0071846085850622307</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97">
+        <v>0.051450014427838274</v>
+      </c>
+      <c r="C97">
+        <v>0.038121327754109847</v>
+      </c>
+      <c r="D97">
+        <v>0.18594199591673549</v>
+      </c>
+      <c r="E97">
+        <v>0.69693975771364003</v>
+      </c>
+      <c r="F97">
+        <v>0.021239289276758836</v>
+      </c>
+      <c r="G97">
+        <v>0.0063076149109175961</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B98">
+        <v>0.43723347534704404</v>
+      </c>
+      <c r="C98">
+        <v>0.017935007702553782</v>
+      </c>
+      <c r="D98">
+        <v>0.037070897389941571</v>
+      </c>
+      <c r="E98">
+        <v>0.49851595590687997</v>
+      </c>
+      <c r="F98">
+        <v>0.0064994346840649411</v>
+      </c>
+      <c r="G98">
+        <v>0.0027452289695157868</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B99">
+        <v>0.00029986173743988092</v>
+      </c>
+      <c r="C99">
+        <v>0.0011162949558754499</v>
+      </c>
+      <c r="D99">
+        <v>0.03555547074886941</v>
+      </c>
+      <c r="E99">
+        <v>0.024949797904520465</v>
+      </c>
+      <c r="F99">
+        <v>0.93779538084888614</v>
+      </c>
+      <c r="G99">
+        <v>0.00028319380440858271</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B100">
+        <v>0.02030706202859571</v>
+      </c>
+      <c r="C100">
+        <v>5.9742061118857866e-06</v>
+      </c>
+      <c r="D100">
+        <v>0.91966140913012884</v>
+      </c>
+      <c r="E100">
+        <v>0.00085015079856688876</v>
+      </c>
+      <c r="F100">
+        <v>0.059068012087155709</v>
+      </c>
+      <c r="G100">
+        <v>0.00010739174944115639</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B101">
+        <v>0.0060536747139418286</v>
+      </c>
+      <c r="C101">
+        <v>0.012130475714538635</v>
+      </c>
+      <c r="D101">
+        <v>0.0031173995394032103</v>
+      </c>
+      <c r="E101">
+        <v>0.059925067112561362</v>
+      </c>
+      <c r="F101">
+        <v>0.0028163972383872583</v>
+      </c>
+      <c r="G101">
+        <v>0.91595698568116757</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I100"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="true"/>
+    <col min="2" max="2" width="27.140625" customWidth="true"/>
+    <col min="3" max="3" width="27.140625" customWidth="true"/>
+    <col min="4" max="4" width="27.140625" customWidth="true"/>
+    <col min="5" max="5" width="27.140625" customWidth="true"/>
+    <col min="6" max="6" width="27.140625" customWidth="true"/>
+    <col min="7" max="7" width="26" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2">
+        <v>0.96654466953811724</v>
+      </c>
+      <c r="C2">
+        <v>0.00033923297909898317</v>
+      </c>
+      <c r="D2">
+        <v>0.018503812780151698</v>
+      </c>
+      <c r="E2">
+        <v>0.00047811989814071848</v>
+      </c>
+      <c r="F2">
+        <v>0.0062019048274491537</v>
+      </c>
+      <c r="G2">
+        <v>0.0079322599770422011</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3">
+        <v>0.85795562391832969</v>
+      </c>
+      <c r="C3">
+        <v>0.0052728503777330999</v>
+      </c>
+      <c r="D3">
+        <v>0.06141722943707624</v>
+      </c>
+      <c r="E3">
+        <v>0.039625079989577441</v>
+      </c>
+      <c r="F3">
+        <v>0.028980694791464159</v>
+      </c>
+      <c r="G3">
+        <v>0.0067485214858192923</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4">
+        <v>0.4525028531799356</v>
+      </c>
+      <c r="C4">
+        <v>0.019171246386565345</v>
+      </c>
+      <c r="D4">
+        <v>0.25825908034037998</v>
+      </c>
+      <c r="E4">
+        <v>0.12248460839339335</v>
+      </c>
+      <c r="F4">
+        <v>0.136493885631158</v>
+      </c>
+      <c r="G4">
+        <v>0.011088326068567664</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5">
+        <v>0.92113006047813917</v>
+      </c>
+      <c r="C5">
+        <v>0.0037803354363759316</v>
+      </c>
+      <c r="D5">
+        <v>0.033331997819207954</v>
+      </c>
+      <c r="E5">
+        <v>0.01801278376780276</v>
+      </c>
+      <c r="F5">
+        <v>0.014089377331821584</v>
+      </c>
+      <c r="G5">
+        <v>0.0096554451666526885</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6">
+        <v>0.83612852689659523</v>
+      </c>
+      <c r="C6">
+        <v>0.013613107007712393</v>
+      </c>
+      <c r="D6">
+        <v>0.088542192872644004</v>
+      </c>
+      <c r="E6">
+        <v>0.041436868985515116</v>
+      </c>
+      <c r="F6">
+        <v>0.01768748285156193</v>
+      </c>
+      <c r="G6">
+        <v>0.0025918213859712968</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7">
+        <v>0.89321154771899725</v>
+      </c>
+      <c r="C7">
+        <v>0.058672087001424497</v>
+      </c>
+      <c r="D7">
+        <v>0.0012256978327778892</v>
+      </c>
+      <c r="E7">
+        <v>0.0010959522962640724</v>
+      </c>
+      <c r="F7">
+        <v>0.045754590319815207</v>
+      </c>
+      <c r="G7">
+        <v>4.0124830721147623e-05</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8">
+        <v>0.90107814040005096</v>
+      </c>
+      <c r="C8">
+        <v>0.037198282945945141</v>
+      </c>
+      <c r="D8">
+        <v>0.022308758604394373</v>
+      </c>
+      <c r="E8">
+        <v>0.025985372325331137</v>
+      </c>
+      <c r="F8">
+        <v>0.011625504097755071</v>
+      </c>
+      <c r="G8">
+        <v>0.0018039416265233444</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9">
+        <v>0.93957134469488146</v>
+      </c>
+      <c r="C9">
+        <v>0.0017916055804922497</v>
+      </c>
+      <c r="D9">
+        <v>0.0081958950805149523</v>
+      </c>
+      <c r="E9">
+        <v>0.028753930590643732</v>
+      </c>
+      <c r="F9">
+        <v>0.019324864818295109</v>
+      </c>
+      <c r="G9">
+        <v>0.0023623592351724224</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10">
+        <v>0.88294282095159093</v>
+      </c>
+      <c r="C10">
+        <v>0.015893626447991756</v>
+      </c>
+      <c r="D10">
+        <v>0.054757826326366443</v>
+      </c>
+      <c r="E10">
+        <v>0.0093205595575123514</v>
+      </c>
+      <c r="F10">
+        <v>0.033855829047597451</v>
+      </c>
+      <c r="G10">
+        <v>0.0032293376689411044</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11">
+        <v>0.90792882063943425</v>
+      </c>
+      <c r="C11">
+        <v>0.00098602437186007404</v>
+      </c>
+      <c r="D11">
+        <v>0.039954645333257932</v>
+      </c>
+      <c r="E11">
+        <v>0.0043841738790990226</v>
+      </c>
+      <c r="F11">
+        <v>0.042503062637660072</v>
+      </c>
+      <c r="G11">
+        <v>0.0042432731386886913</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12">
+        <v>0.79444393497177646</v>
+      </c>
+      <c r="C12">
+        <v>0.017055340987209122</v>
+      </c>
+      <c r="D12">
+        <v>0.078706709612684653</v>
+      </c>
+      <c r="E12">
+        <v>0.067383173388920997</v>
+      </c>
+      <c r="F12">
+        <v>0.040090266897526712</v>
+      </c>
+      <c r="G12">
+        <v>0.0023205741418821243</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13">
+        <v>0.93263550262269401</v>
+      </c>
+      <c r="C13">
+        <v>0.010630418935430272</v>
+      </c>
+      <c r="D13">
+        <v>0.014791554667663241</v>
+      </c>
+      <c r="E13">
+        <v>0.015919163949887915</v>
+      </c>
+      <c r="F13">
+        <v>0.022103162284171356</v>
+      </c>
+      <c r="G13">
+        <v>0.0039201975401531594</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14">
+        <v>0.73363361850077025</v>
+      </c>
+      <c r="C14">
+        <v>0.025969775114848076</v>
+      </c>
+      <c r="D14">
+        <v>0.070018681979764893</v>
+      </c>
+      <c r="E14">
+        <v>0.093737491456237637</v>
+      </c>
+      <c r="F14">
+        <v>0.073830800429923446</v>
+      </c>
+      <c r="G14">
+        <v>0.0028096325184556832</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15">
+        <v>0.754193914118366</v>
+      </c>
+      <c r="C15">
+        <v>0.0012963132675910033</v>
+      </c>
+      <c r="D15">
+        <v>0.075877065432335189</v>
+      </c>
+      <c r="E15">
+        <v>0.075918117956845166</v>
+      </c>
+      <c r="F15">
+        <v>0.083853220286506644</v>
+      </c>
+      <c r="G15">
+        <v>0.0088613689383560817</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16">
+        <v>0.82487967048623123</v>
+      </c>
+      <c r="C16">
+        <v>0.00057058624260909491</v>
+      </c>
+      <c r="D16">
+        <v>0.05004390043719107</v>
+      </c>
+      <c r="E16">
+        <v>0.014169505439003307</v>
+      </c>
+      <c r="F16">
+        <v>0.10765242932616313</v>
+      </c>
+      <c r="G16">
+        <v>0.0026839080688020301</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17">
+        <v>0.95309765457907414</v>
+      </c>
+      <c r="C17">
+        <v>0.0078963953760289897</v>
+      </c>
+      <c r="D17">
+        <v>0.0041310105078570091</v>
+      </c>
+      <c r="E17">
+        <v>0.0011856957535209165</v>
+      </c>
+      <c r="F17">
+        <v>0.032068823352510677</v>
+      </c>
+      <c r="G17">
+        <v>0.0016204204310083271</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18">
+        <v>0.80800428365584498</v>
+      </c>
+      <c r="C18">
+        <v>0.00054159597950993559</v>
+      </c>
+      <c r="D18">
+        <v>0.026113575389078394</v>
+      </c>
+      <c r="E18">
+        <v>0.10166549707306673</v>
+      </c>
+      <c r="F18">
+        <v>0.053602991883648664</v>
+      </c>
+      <c r="G18">
+        <v>0.010072056018851264</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19">
+        <v>0.93355132161887555</v>
+      </c>
+      <c r="C19">
+        <v>0.00010842888705962713</v>
+      </c>
+      <c r="D19">
+        <v>0.022100476672034533</v>
+      </c>
+      <c r="E19">
+        <v>0.014860242222740927</v>
+      </c>
+      <c r="F19">
+        <v>0.026907286335002271</v>
+      </c>
+      <c r="G19">
+        <v>0.0024722442642871791</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20">
+        <v>0.89219123916537268</v>
+      </c>
+      <c r="C20">
+        <v>0.00036106927102238519</v>
+      </c>
+      <c r="D20">
+        <v>0.00058876926452949873</v>
+      </c>
+      <c r="E20">
+        <v>0.010417588546488034</v>
+      </c>
+      <c r="F20">
+        <v>0.096094263283653225</v>
+      </c>
+      <c r="G20">
+        <v>0.00034707046893411191</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21">
+        <v>0.95551682965690443</v>
+      </c>
+      <c r="C21">
+        <v>0.0023914536862172705</v>
+      </c>
+      <c r="D21">
+        <v>0.017582021042945137</v>
+      </c>
+      <c r="E21">
+        <v>0.004997852254198497</v>
+      </c>
+      <c r="F21">
+        <v>0.0053183847012266607</v>
+      </c>
+      <c r="G21">
+        <v>0.014193458658507987</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22">
+        <v>0.95162661897476342</v>
+      </c>
+      <c r="C22">
+        <v>0.018276348430208245</v>
+      </c>
+      <c r="D22">
+        <v>0.00086613347147992872</v>
+      </c>
+      <c r="E22">
+        <v>0.0088344679368399983</v>
+      </c>
+      <c r="F22">
+        <v>0.0098102846124594641</v>
+      </c>
+      <c r="G22">
+        <v>0.010586146574249019</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23">
+        <v>0.90625608738805219</v>
+      </c>
+      <c r="C23">
+        <v>0.0061456998943307918</v>
+      </c>
+      <c r="D23">
+        <v>0.044267376816311092</v>
+      </c>
+      <c r="E23">
+        <v>0.018622526948037829</v>
+      </c>
+      <c r="F23">
+        <v>0.015595002198258694</v>
+      </c>
+      <c r="G23">
+        <v>0.009113306755009461</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24">
+        <v>0.9270813628113983</v>
+      </c>
+      <c r="C24">
+        <v>0.0034812409338378495</v>
+      </c>
+      <c r="D24">
+        <v>0.041670544674013481</v>
+      </c>
+      <c r="E24">
+        <v>0.0071283221820078501</v>
+      </c>
+      <c r="F24">
+        <v>0.013434889130920575</v>
+      </c>
+      <c r="G24">
+        <v>0.0072036402678219355</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25">
+        <v>0.91739710419958265</v>
+      </c>
+      <c r="C25">
+        <v>1.5216140259284926e-05</v>
+      </c>
+      <c r="D25">
+        <v>0.062974733536825631</v>
+      </c>
+      <c r="E25">
+        <v>0.00023571547903864076</v>
+      </c>
+      <c r="F25">
+        <v>0.0016539559291116588</v>
+      </c>
+      <c r="G25">
+        <v>0.017723274715182157</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26">
+        <v>0.91988738507540069</v>
+      </c>
+      <c r="C26">
+        <v>7.6921671059828586e-05</v>
+      </c>
+      <c r="D26">
+        <v>0.047280773193798059</v>
+      </c>
+      <c r="E26">
+        <v>0.0070766924063836731</v>
+      </c>
+      <c r="F26">
+        <v>0.019799631408629382</v>
+      </c>
+      <c r="G26">
+        <v>0.0058785962447284726</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27">
+        <v>0.95734343356743357</v>
+      </c>
+      <c r="C27">
+        <v>0.013840098848743593</v>
+      </c>
+      <c r="D27">
+        <v>0.0051104502709713963</v>
+      </c>
+      <c r="E27">
+        <v>0.0051280689242568902</v>
+      </c>
+      <c r="F27">
+        <v>0.0033809553740940411</v>
+      </c>
+      <c r="G27">
+        <v>0.015196993014500556</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28">
+        <v>0.74749460522424327</v>
+      </c>
+      <c r="C28">
+        <v>1.439763865283858e-05</v>
+      </c>
+      <c r="D28">
+        <v>0.24317216942441397</v>
+      </c>
+      <c r="E28">
+        <v>0.0012340049326004829</v>
+      </c>
+      <c r="F28">
+        <v>0.0029636113601384517</v>
+      </c>
+      <c r="G28">
+        <v>0.0051212114199509998</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29">
+        <v>0.19607385600482555</v>
+      </c>
+      <c r="C29">
+        <v>1.6252904993743169e-05</v>
+      </c>
+      <c r="D29">
+        <v>0.75341321010242346</v>
+      </c>
+      <c r="E29">
+        <v>0.021245205064956231</v>
+      </c>
+      <c r="F29">
+        <v>0.0013042328086170741</v>
+      </c>
+      <c r="G29">
+        <v>0.027947243114183767</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30">
+        <v>0.8676230356153769</v>
+      </c>
+      <c r="C30">
+        <v>0.020759106539287205</v>
+      </c>
+      <c r="D30">
+        <v>0.041844601837333108</v>
+      </c>
+      <c r="E30">
+        <v>0.036288775195907307</v>
+      </c>
+      <c r="F30">
+        <v>0.028568835996242152</v>
+      </c>
+      <c r="G30">
+        <v>0.0049156448158533166</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31">
+        <v>0.72150411617856403</v>
+      </c>
+      <c r="C31">
+        <v>0.00024129495763964949</v>
+      </c>
+      <c r="D31">
+        <v>0.23602832202207688</v>
+      </c>
+      <c r="E31">
+        <v>0.0078241877888488576</v>
+      </c>
+      <c r="F31">
+        <v>0.01447485372735602</v>
+      </c>
+      <c r="G31">
+        <v>0.01992722532551465</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B32">
+        <v>0.98276537831066968</v>
+      </c>
+      <c r="C32">
+        <v>0.0001727886456857718</v>
+      </c>
+      <c r="D32">
+        <v>0.0021957520443463556</v>
+      </c>
+      <c r="E32">
+        <v>0.00088995948615535399</v>
+      </c>
+      <c r="F32">
+        <v>0.004123705184440417</v>
+      </c>
+      <c r="G32">
+        <v>0.0098524163287023511</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B33">
+        <v>0.9342052179053687</v>
+      </c>
+      <c r="C33">
+        <v>0.014603104947543459</v>
+      </c>
+      <c r="D33">
+        <v>0.014068168842315761</v>
+      </c>
+      <c r="E33">
+        <v>0.018437077220889851</v>
+      </c>
+      <c r="F33">
+        <v>0.013039873706254186</v>
+      </c>
+      <c r="G33">
+        <v>0.005646557377628033</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B34">
+        <v>0.93413963549563483</v>
+      </c>
+      <c r="C34">
+        <v>0.00084691029631461866</v>
+      </c>
+      <c r="D34">
+        <v>0.043249911927071331</v>
+      </c>
+      <c r="E34">
+        <v>0.0052059586895572552</v>
+      </c>
+      <c r="F34">
+        <v>0.012322924663573771</v>
+      </c>
+      <c r="G34">
+        <v>0.0042346589278482033</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B35">
+        <v>0.78231940195780458</v>
+      </c>
+      <c r="C35">
+        <v>0.0063040643457718858</v>
+      </c>
+      <c r="D35">
+        <v>0.15990523000152984</v>
+      </c>
+      <c r="E35">
+        <v>0.020054061256639364</v>
+      </c>
+      <c r="F35">
+        <v>0.022629515039738268</v>
+      </c>
+      <c r="G35">
+        <v>0.008787727398516073</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B36">
+        <v>0.89400291705809776</v>
+      </c>
+      <c r="C36">
+        <v>0.0055010377391103496</v>
+      </c>
+      <c r="D36">
+        <v>0.06700010556937662</v>
+      </c>
+      <c r="E36">
+        <v>0.012915805815820578</v>
+      </c>
+      <c r="F36">
+        <v>0.0156090276756861</v>
+      </c>
+      <c r="G36">
+        <v>0.0049711061419086136</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37">
+        <v>7.9904383922660701e-06</v>
+      </c>
+      <c r="C37">
+        <v>0.9896801088369771</v>
+      </c>
+      <c r="D37">
+        <v>5.199997335492982e-05</v>
+      </c>
+      <c r="E37">
+        <v>0.0089256644252729868</v>
+      </c>
+      <c r="F37">
+        <v>0.00068006411599263355</v>
+      </c>
+      <c r="G37">
+        <v>0.00065417221001003699</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B38">
+        <v>3.7092079121819919e-05</v>
+      </c>
+      <c r="C38">
+        <v>0.88618178605227704</v>
+      </c>
+      <c r="D38">
+        <v>0.00013829593654028202</v>
+      </c>
+      <c r="E38">
+        <v>0.085990487739967481</v>
+      </c>
+      <c r="F38">
+        <v>0.025940350217281718</v>
+      </c>
+      <c r="G38">
+        <v>0.0017119879748117646</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B39">
+        <v>0.00033896887941523186</v>
+      </c>
+      <c r="C39">
+        <v>0.96765604282491235</v>
+      </c>
+      <c r="D39">
+        <v>0.0011394360628241265</v>
+      </c>
+      <c r="E39">
+        <v>0.022097383233854032</v>
+      </c>
+      <c r="F39">
+        <v>0.006648921903242868</v>
+      </c>
+      <c r="G39">
+        <v>0.0021192470957513776</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40">
+        <v>0.00010815685085925419</v>
+      </c>
+      <c r="C40">
+        <v>0.93699882589507644</v>
+      </c>
+      <c r="D40">
+        <v>4.6620375277300708e-05</v>
+      </c>
+      <c r="E40">
+        <v>0.061649487321127273</v>
+      </c>
+      <c r="F40">
+        <v>6.1015261341647024e-05</v>
+      </c>
+      <c r="G40">
+        <v>0.0011358942963181468</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41">
+        <v>0.00010553074507611462</v>
+      </c>
+      <c r="C41">
+        <v>0.95877056130554439</v>
+      </c>
+      <c r="D41">
+        <v>8.5909345143830434e-05</v>
+      </c>
+      <c r="E41">
+        <v>0.035952961504275745</v>
+      </c>
+      <c r="F41">
+        <v>0.0037603984545541307</v>
+      </c>
+      <c r="G41">
+        <v>0.0013246386454058919</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B42">
+        <v>1.1296416214826037e-05</v>
+      </c>
+      <c r="C42">
+        <v>0.9827040162852233</v>
+      </c>
+      <c r="D42">
+        <v>1.2372540544863782e-05</v>
+      </c>
+      <c r="E42">
+        <v>0.017093061927938861</v>
+      </c>
+      <c r="F42">
+        <v>2.3841815664670694e-05</v>
+      </c>
+      <c r="G42">
+        <v>0.0001554110144133286</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B43">
+        <v>0.0011460555008645664</v>
+      </c>
+      <c r="C43">
+        <v>0.75166280769840221</v>
+      </c>
+      <c r="D43">
+        <v>0.00060754586642567873</v>
+      </c>
+      <c r="E43">
+        <v>0.23754078136350773</v>
+      </c>
+      <c r="F43">
+        <v>0.0061475479367607173</v>
+      </c>
+      <c r="G43">
+        <v>0.0028952616340392596</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44">
+        <v>1.0283223944677111e-05</v>
+      </c>
+      <c r="C44">
+        <v>0.99533404449870888</v>
+      </c>
+      <c r="D44">
+        <v>7.4312160543639068e-05</v>
+      </c>
+      <c r="E44">
+        <v>0.0043869633344379546</v>
+      </c>
+      <c r="F44">
+        <v>0.00017108826858292238</v>
+      </c>
+      <c r="G44">
+        <v>2.3308513782062255e-05</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B45">
+        <v>8.2905304509717202e-06</v>
+      </c>
+      <c r="C45">
+        <v>0.97000138229416477</v>
+      </c>
+      <c r="D45">
+        <v>0.00035374219457199175</v>
+      </c>
+      <c r="E45">
+        <v>0.026443687372122052</v>
+      </c>
+      <c r="F45">
+        <v>0.0029753654407549705</v>
+      </c>
+      <c r="G45">
+        <v>0.00021753216793523309</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46">
+        <v>2.197124790833317e-06</v>
+      </c>
+      <c r="C46">
+        <v>0.99541537570607974</v>
+      </c>
+      <c r="D46">
+        <v>6.6296252588119505e-05</v>
+      </c>
+      <c r="E46">
+        <v>0.00403973796488702</v>
+      </c>
+      <c r="F46">
+        <v>0.00018685033250859256</v>
+      </c>
+      <c r="G46">
+        <v>0.00028954261914559021</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B47">
+        <v>0.00074405202214536826</v>
+      </c>
+      <c r="C47">
+        <v>0.8883649100044696</v>
+      </c>
+      <c r="D47">
+        <v>0.0032781954210551667</v>
+      </c>
+      <c r="E47">
+        <v>0.10338354316176812</v>
+      </c>
+      <c r="F47">
+        <v>0.0037752196742775919</v>
+      </c>
+      <c r="G47">
+        <v>0.00045407971628426614</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48">
+        <v>0.0040981568552283659</v>
+      </c>
+      <c r="C48">
+        <v>0.86943600398999998</v>
+      </c>
+      <c r="D48">
+        <v>0.00085616370273861595</v>
+      </c>
+      <c r="E48">
+        <v>0.061063719960108301</v>
+      </c>
+      <c r="F48">
+        <v>0.064182660364812114</v>
+      </c>
+      <c r="G48">
+        <v>0.0003632951271126581</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49">
+        <v>0.0033060918380461123</v>
+      </c>
+      <c r="C49">
+        <v>0.92771734039741949</v>
+      </c>
+      <c r="D49">
+        <v>0.00036230742289170128</v>
+      </c>
+      <c r="E49">
+        <v>0.066768075362360318</v>
+      </c>
+      <c r="F49">
+        <v>0.0018310479184206702</v>
+      </c>
+      <c r="G49">
+        <v>1.5137060861607633e-05</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B50">
+        <v>0.10136392746811398</v>
+      </c>
+      <c r="C50">
+        <v>0.35038951426957665</v>
+      </c>
+      <c r="D50">
+        <v>0.15921335516820906</v>
+      </c>
+      <c r="E50">
+        <v>0.20932498561582802</v>
+      </c>
+      <c r="F50">
+        <v>0.14318457450000655</v>
+      </c>
+      <c r="G50">
+        <v>0.036523642978265755</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B51">
+        <v>0.29255131642064069</v>
+      </c>
+      <c r="C51">
+        <v>0.024302350409287139</v>
+      </c>
+      <c r="D51">
+        <v>0.00062340204249936699</v>
+      </c>
+      <c r="E51">
+        <v>0.60598940425734815</v>
+      </c>
+      <c r="F51">
+        <v>0.07635623217571462</v>
+      </c>
+      <c r="G51">
+        <v>0.0001772946945099484</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52">
+        <v>5.9312772250829806e-06</v>
+      </c>
+      <c r="C52">
+        <v>0.99152489533589938</v>
+      </c>
+      <c r="D52">
+        <v>8.0466729745659854e-05</v>
+      </c>
+      <c r="E52">
+        <v>0.0076846755664886556</v>
+      </c>
+      <c r="F52">
+        <v>0.00036633035463340603</v>
+      </c>
+      <c r="G52">
+        <v>0.00033770073600783624</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B53">
+        <v>0.29693710611168078</v>
+      </c>
+      <c r="C53">
+        <v>0.0075661358631575687</v>
+      </c>
+      <c r="D53">
+        <v>0.62920087426334148</v>
+      </c>
+      <c r="E53">
+        <v>0.034097876293168648</v>
+      </c>
+      <c r="F53">
+        <v>0.028543157390422392</v>
+      </c>
+      <c r="G53">
+        <v>0.0036548500782290416</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B54">
+        <v>0.024963917065082979</v>
+      </c>
+      <c r="C54">
+        <v>0.0082026750295247728</v>
+      </c>
+      <c r="D54">
+        <v>0.83393300480423638</v>
+      </c>
+      <c r="E54">
+        <v>0.075846935796423862</v>
+      </c>
+      <c r="F54">
+        <v>0.048135918212822246</v>
+      </c>
+      <c r="G54">
+        <v>0.0089175490919098342</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B55">
+        <v>0.42617006366180271</v>
+      </c>
+      <c r="C55">
+        <v>9.7641324406023951e-08</v>
+      </c>
+      <c r="D55">
+        <v>0.37492137322619762</v>
+      </c>
+      <c r="E55">
+        <v>0.11645986538720111</v>
+      </c>
+      <c r="F55">
+        <v>0.0017835762318469512</v>
+      </c>
+      <c r="G55">
+        <v>0.080665023851627188</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B56">
+        <v>7.2876760392466547e-05</v>
+      </c>
+      <c r="C56">
+        <v>0.00016204992413435025</v>
+      </c>
+      <c r="D56">
+        <v>0.98327408571170849</v>
+      </c>
+      <c r="E56">
+        <v>0.0020765187320459957</v>
+      </c>
+      <c r="F56">
+        <v>0.011069567634381794</v>
+      </c>
+      <c r="G56">
+        <v>0.0033449012373368836</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B57">
+        <v>0.44572679365483436</v>
+      </c>
+      <c r="C57">
+        <v>0.012860113111739206</v>
+      </c>
+      <c r="D57">
+        <v>0.015506109923807465</v>
+      </c>
+      <c r="E57">
+        <v>0.2764984185159387</v>
+      </c>
+      <c r="F57">
+        <v>0.24700773185415811</v>
+      </c>
+      <c r="G57">
+        <v>0.0024008329395220776</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B58">
+        <v>0.0091728875678799733</v>
+      </c>
+      <c r="C58">
+        <v>0.00017921336394548414</v>
+      </c>
+      <c r="D58">
+        <v>0.22253022182297216</v>
+      </c>
+      <c r="E58">
+        <v>0.74859710996478401</v>
+      </c>
+      <c r="F58">
+        <v>0.013325262647055356</v>
+      </c>
+      <c r="G58">
+        <v>0.0061953046333630074</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B59">
+        <v>3.9920849050799689e-05</v>
+      </c>
+      <c r="C59">
+        <v>2.2168365127102664e-05</v>
+      </c>
+      <c r="D59">
+        <v>0.94098884811819405</v>
+      </c>
+      <c r="E59">
+        <v>0.0040654710011106352</v>
+      </c>
+      <c r="F59">
+        <v>0.050815952307770695</v>
+      </c>
+      <c r="G59">
+        <v>0.004067639358746749</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B60">
+        <v>0.0006727764625653179</v>
+      </c>
+      <c r="C60">
+        <v>0.00023524588628288562</v>
+      </c>
+      <c r="D60">
+        <v>0.97580399238289983</v>
+      </c>
+      <c r="E60">
+        <v>0.0053658256108434117</v>
+      </c>
+      <c r="F60">
+        <v>0.010701392874238148</v>
+      </c>
+      <c r="G60">
+        <v>0.0072207667831704504</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61">
+        <v>0.0017399745203950932</v>
+      </c>
+      <c r="C61">
+        <v>0.00031344187787622486</v>
+      </c>
+      <c r="D61">
+        <v>0.96911256357309494</v>
+      </c>
+      <c r="E61">
+        <v>0.0062006534016624971</v>
+      </c>
+      <c r="F61">
+        <v>0.018694186962715603</v>
+      </c>
+      <c r="G61">
+        <v>0.0039391796642555968</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B62">
+        <v>0.0022499835931920498</v>
+      </c>
+      <c r="C62">
+        <v>0.0010322193517428436</v>
+      </c>
+      <c r="D62">
+        <v>0.94991726931139264</v>
+      </c>
+      <c r="E62">
+        <v>0.0034523118991617793</v>
+      </c>
+      <c r="F62">
+        <v>0.041124393735055637</v>
+      </c>
+      <c r="G62">
+        <v>0.0022238221094551076</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63">
+        <v>0.31464648566428566</v>
+      </c>
+      <c r="C63">
+        <v>0.050858030094886666</v>
+      </c>
+      <c r="D63">
+        <v>0.20031103272313561</v>
+      </c>
+      <c r="E63">
+        <v>0.16367566750929738</v>
+      </c>
+      <c r="F63">
+        <v>0.2312300590073027</v>
+      </c>
+      <c r="G63">
+        <v>0.039278725001091974</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B64">
+        <v>8.1529899945227468e-05</v>
+      </c>
+      <c r="C64">
+        <v>4.150450730135077e-05</v>
+      </c>
+      <c r="D64">
+        <v>0.96854832141270164</v>
+      </c>
+      <c r="E64">
+        <v>0.0025546781428362523</v>
+      </c>
+      <c r="F64">
+        <v>0.026939767344018737</v>
+      </c>
+      <c r="G64">
+        <v>0.0018341986931966732</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65">
+        <v>0.018537096725889619</v>
+      </c>
+      <c r="C65">
+        <v>0.0019814847652880798</v>
+      </c>
+      <c r="D65">
+        <v>0.91902532530359515</v>
+      </c>
+      <c r="E65">
+        <v>0.02534857649169036</v>
+      </c>
+      <c r="F65">
+        <v>0.025379072176176048</v>
+      </c>
+      <c r="G65">
+        <v>0.0097284445373607177</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B66">
+        <v>0.01024453927540328</v>
+      </c>
+      <c r="C66">
+        <v>0.0023430403800478515</v>
+      </c>
+      <c r="D66">
+        <v>0.92052853685571945</v>
+      </c>
+      <c r="E66">
+        <v>0.030348661815676196</v>
+      </c>
+      <c r="F66">
+        <v>0.02458507609288841</v>
+      </c>
+      <c r="G66">
+        <v>0.011950145580264823</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B67">
+        <v>0.0042716129678009611</v>
+      </c>
+      <c r="C67">
+        <v>0.001971208292078619</v>
+      </c>
+      <c r="D67">
+        <v>0.95775785996588703</v>
+      </c>
+      <c r="E67">
+        <v>0.005134220817291129</v>
+      </c>
+      <c r="F67">
+        <v>0.025972808300128814</v>
+      </c>
+      <c r="G67">
+        <v>0.0048922896568134927</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B68">
+        <v>0.00060256687805859265</v>
+      </c>
+      <c r="C68">
+        <v>0.0012597678431233205</v>
+      </c>
+      <c r="D68">
+        <v>0.98333643825137829</v>
+      </c>
+      <c r="E68">
+        <v>0.0049591751354299924</v>
+      </c>
+      <c r="F68">
+        <v>0.0052738666226480758</v>
+      </c>
+      <c r="G68">
+        <v>0.0045681852693617332</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69">
+        <v>0.0077898808433205626</v>
+      </c>
+      <c r="C69">
+        <v>0.0014606993589926078</v>
+      </c>
+      <c r="D69">
+        <v>0.96761721175106696</v>
+      </c>
+      <c r="E69">
+        <v>0.0053940424724192894</v>
+      </c>
+      <c r="F69">
+        <v>0.014782325667792584</v>
+      </c>
+      <c r="G69">
+        <v>0.0029558399064079279</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70">
+        <v>0.038516254647180982</v>
+      </c>
+      <c r="C70">
+        <v>0.001921977666742052</v>
+      </c>
+      <c r="D70">
+        <v>0.92298162163373243</v>
+      </c>
+      <c r="E70">
+        <v>0.01021684697412684</v>
+      </c>
+      <c r="F70">
+        <v>0.018795818015425115</v>
+      </c>
+      <c r="G70">
+        <v>0.0075674810627927112</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B71">
+        <v>0.0026967397158296391</v>
+      </c>
+      <c r="C71">
+        <v>0.0070826530888903677</v>
+      </c>
+      <c r="D71">
+        <v>0.90823215228711385</v>
+      </c>
+      <c r="E71">
+        <v>0.017373118635082219</v>
+      </c>
+      <c r="F71">
+        <v>0.059374671439245179</v>
+      </c>
+      <c r="G71">
+        <v>0.0052406648338388416</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B72">
+        <v>0.0094564007494348217</v>
+      </c>
+      <c r="C72">
+        <v>0.0041636523157424976</v>
+      </c>
+      <c r="D72">
+        <v>0.95403013680246573</v>
+      </c>
+      <c r="E72">
+        <v>0.014066483427501162</v>
+      </c>
+      <c r="F72">
+        <v>0.009372371893994794</v>
+      </c>
+      <c r="G72">
+        <v>0.0089109548108610021</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B73">
+        <v>0.0038578093121909721</v>
+      </c>
+      <c r="C73">
+        <v>0.00016955710447758739</v>
+      </c>
+      <c r="D73">
+        <v>0.86902324079337168</v>
+      </c>
+      <c r="E73">
+        <v>0.10684328340528253</v>
+      </c>
+      <c r="F73">
+        <v>0.0046201477185408325</v>
+      </c>
+      <c r="G73">
+        <v>0.015485961666136408</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B74">
+        <v>0.00011891404001211522</v>
+      </c>
+      <c r="C74">
+        <v>0.0078739866149572305</v>
+      </c>
+      <c r="D74">
+        <v>7.9330063733216527e-05</v>
+      </c>
+      <c r="E74">
+        <v>0.98465670117579918</v>
+      </c>
+      <c r="F74">
+        <v>0.003087815916498619</v>
+      </c>
+      <c r="G74">
+        <v>0.0041832521889995896</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B75">
+        <v>0.029653217091873581</v>
+      </c>
+      <c r="C75">
+        <v>0.065880725573962226</v>
+      </c>
+      <c r="D75">
+        <v>0.0036174833076582477</v>
+      </c>
+      <c r="E75">
+        <v>0.74105242796513926</v>
+      </c>
+      <c r="F75">
+        <v>0.097002199375874773</v>
+      </c>
+      <c r="G75">
+        <v>0.062793946685491889</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B76">
+        <v>0.00031713975423405415</v>
+      </c>
+      <c r="C76">
+        <v>0.033573546138949431</v>
+      </c>
+      <c r="D76">
+        <v>0.00059906878185593982</v>
+      </c>
+      <c r="E76">
+        <v>0.92708986136420868</v>
+      </c>
+      <c r="F76">
+        <v>0.031089039645432675</v>
+      </c>
+      <c r="G76">
+        <v>0.0073313443153193766</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B77">
+        <v>0.01260699699689545</v>
+      </c>
+      <c r="C77">
+        <v>0.084422998158528648</v>
+      </c>
+      <c r="D77">
+        <v>0.0011112999830518988</v>
+      </c>
+      <c r="E77">
+        <v>0.61208743070134697</v>
+      </c>
+      <c r="F77">
+        <v>0.20955347319848036</v>
+      </c>
+      <c r="G77">
+        <v>0.080217800961696631</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B78">
+        <v>0.0012388775095863276</v>
+      </c>
+      <c r="C78">
+        <v>0.012602048607425252</v>
+      </c>
+      <c r="D78">
+        <v>0.00010714868252909826</v>
+      </c>
+      <c r="E78">
+        <v>0.95665573010837068</v>
+      </c>
+      <c r="F78">
+        <v>0.0078405981346139613</v>
+      </c>
+      <c r="G78">
+        <v>0.021555596957474707</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79">
+        <v>0.0056580296226680553</v>
+      </c>
+      <c r="C79">
+        <v>0.091520317482700425</v>
+      </c>
+      <c r="D79">
+        <v>0.035811266163332897</v>
+      </c>
+      <c r="E79">
+        <v>0.57380162740080753</v>
+      </c>
+      <c r="F79">
+        <v>0.26329324118793701</v>
+      </c>
+      <c r="G79">
+        <v>0.029915518142554103</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B80">
+        <v>0.010847051044005213</v>
+      </c>
+      <c r="C80">
+        <v>0.16464112797873634</v>
+      </c>
+      <c r="D80">
+        <v>0.0053902771198572341</v>
+      </c>
+      <c r="E80">
+        <v>0.79890280766557409</v>
+      </c>
+      <c r="F80">
+        <v>0.017813026157253085</v>
+      </c>
+      <c r="G80">
+        <v>0.002405710034574187</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B81">
+        <v>0.0016868552575228187</v>
+      </c>
+      <c r="C81">
+        <v>0.68137003590758294</v>
+      </c>
+      <c r="D81">
+        <v>0.0019876166554639069</v>
+      </c>
+      <c r="E81">
+        <v>0.30890044997184618</v>
+      </c>
+      <c r="F81">
+        <v>0.0050980056935883067</v>
+      </c>
+      <c r="G81">
+        <v>0.00095703651399578948</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B82">
+        <v>0.1290640412754345</v>
+      </c>
+      <c r="C82">
+        <v>0.16910739652675985</v>
+      </c>
+      <c r="D82">
+        <v>0.17302317142189405</v>
+      </c>
+      <c r="E82">
+        <v>0.27863380565128165</v>
+      </c>
+      <c r="F82">
+        <v>0.22912495211261652</v>
+      </c>
+      <c r="G82">
+        <v>0.021046633012013399</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B83">
+        <v>0.0019633912920699321</v>
+      </c>
+      <c r="C83">
+        <v>0.47998566977246926</v>
+      </c>
+      <c r="D83">
+        <v>0.018664068316777634</v>
+      </c>
+      <c r="E83">
+        <v>0.37720498492674709</v>
+      </c>
+      <c r="F83">
+        <v>0.11681230436772712</v>
+      </c>
+      <c r="G83">
+        <v>0.0053695813242089028</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B84">
+        <v>0.012204589257992482</v>
+      </c>
+      <c r="C84">
+        <v>0.013395778794412802</v>
+      </c>
+      <c r="D84">
+        <v>0.0041025787416122958</v>
+      </c>
+      <c r="E84">
+        <v>0.75110670297381588</v>
+      </c>
+      <c r="F84">
+        <v>0.10156701003135928</v>
+      </c>
+      <c r="G84">
+        <v>0.11762334020080728</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B85">
+        <v>0.00021038386513283434</v>
+      </c>
+      <c r="C85">
+        <v>0.0044154003348455687</v>
+      </c>
+      <c r="D85">
+        <v>6.9855212578603376e-05</v>
+      </c>
+      <c r="E85">
+        <v>0.98463202303048181</v>
+      </c>
+      <c r="F85">
+        <v>0.0053931928836839782</v>
+      </c>
+      <c r="G85">
+        <v>0.0052791446732771445</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B86">
+        <v>0.0004825393120682851</v>
+      </c>
+      <c r="C86">
+        <v>0.005507818826780521</v>
+      </c>
+      <c r="D86">
+        <v>0.014179090749307604</v>
+      </c>
+      <c r="E86">
+        <v>0.1943897049664666</v>
+      </c>
+      <c r="F86">
+        <v>0.7686028891787472</v>
+      </c>
+      <c r="G86">
+        <v>0.016837956966629816</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B87">
+        <v>5.9251509393814767e-05</v>
+      </c>
+      <c r="C87">
+        <v>0.00035379287207417401</v>
+      </c>
+      <c r="D87">
+        <v>0.0084286601231713509</v>
+      </c>
+      <c r="E87">
+        <v>0.028824258710665254</v>
+      </c>
+      <c r="F87">
+        <v>0.96068866545296883</v>
+      </c>
+      <c r="G87">
+        <v>0.001645371331726667</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B88">
+        <v>0.0017035294902499475</v>
+      </c>
+      <c r="C88">
+        <v>0.0023269333450180443</v>
+      </c>
+      <c r="D88">
+        <v>0.006084838123965936</v>
+      </c>
+      <c r="E88">
+        <v>0.026240312163541508</v>
+      </c>
+      <c r="F88">
+        <v>0.96083146858833968</v>
+      </c>
+      <c r="G88">
+        <v>0.0028129182888849986</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B89">
+        <v>0.20879240050705711</v>
+      </c>
+      <c r="C89">
+        <v>0.0085994214999330267</v>
+      </c>
+      <c r="D89">
+        <v>0.079933350662505523</v>
+      </c>
+      <c r="E89">
+        <v>0.057323892079683081</v>
+      </c>
+      <c r="F89">
+        <v>0.62163368900241089</v>
+      </c>
+      <c r="G89">
+        <v>0.023717246248410383</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B90">
+        <v>1.0309974371248798e-05</v>
+      </c>
+      <c r="C90">
+        <v>0.00013583588978023024</v>
+      </c>
+      <c r="D90">
+        <v>0.0015272916055046755</v>
+      </c>
+      <c r="E90">
+        <v>0.015682431312172229</v>
+      </c>
+      <c r="F90">
+        <v>0.9816820620660841</v>
+      </c>
+      <c r="G90">
+        <v>0.00096206915208738931</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91">
+        <v>0.0036074751135017676</v>
+      </c>
+      <c r="C91">
+        <v>0.035502127013481252</v>
+      </c>
+      <c r="D91">
+        <v>0.0084643284324375182</v>
+      </c>
+      <c r="E91">
+        <v>0.10952693410738161</v>
+      </c>
+      <c r="F91">
+        <v>0.83526832547696794</v>
+      </c>
+      <c r="G91">
+        <v>0.0076308098562299729</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B92">
+        <v>0.051454857230604452</v>
+      </c>
+      <c r="C92">
+        <v>0.0052022858514918988</v>
+      </c>
+      <c r="D92">
+        <v>0.023221351794464447</v>
+      </c>
+      <c r="E92">
+        <v>0.48134066622455146</v>
+      </c>
+      <c r="F92">
+        <v>0.42809114449927937</v>
+      </c>
+      <c r="G92">
+        <v>0.010689694399608299</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B93">
+        <v>0.00030238012207111872</v>
+      </c>
+      <c r="C93">
+        <v>0.00036261489308572157</v>
+      </c>
+      <c r="D93">
+        <v>0.11248170855219108</v>
+      </c>
+      <c r="E93">
+        <v>0.0039853114891357823</v>
+      </c>
+      <c r="F93">
+        <v>0.88224896363153693</v>
+      </c>
+      <c r="G93">
+        <v>0.00061902131197948248</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B94">
+        <v>0.0002044727067033838</v>
+      </c>
+      <c r="C94">
+        <v>0.0025767075901563835</v>
+      </c>
+      <c r="D94">
+        <v>0.3165198869478929</v>
+      </c>
+      <c r="E94">
+        <v>0.0038424656283605274</v>
+      </c>
+      <c r="F94">
+        <v>0.67606727024561764</v>
+      </c>
+      <c r="G94">
+        <v>0.00078919688126925759</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B95">
+        <v>0.011353543567849702</v>
+      </c>
+      <c r="C95">
+        <v>0.0081451360568481138</v>
+      </c>
+      <c r="D95">
+        <v>0.059259167650536987</v>
+      </c>
+      <c r="E95">
+        <v>0.20134381146405753</v>
+      </c>
+      <c r="F95">
+        <v>0.71041445136845349</v>
+      </c>
+      <c r="G95">
+        <v>0.0094838898922542311</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B96">
+        <v>0.019338949445113982</v>
+      </c>
+      <c r="C96">
+        <v>0.028804033209886292</v>
+      </c>
+      <c r="D96">
+        <v>0.20989688741694507</v>
+      </c>
+      <c r="E96">
+        <v>0.21380284325377266</v>
+      </c>
+      <c r="F96">
+        <v>0.51809206196751023</v>
+      </c>
+      <c r="G96">
+        <v>0.010065224706771743</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B97">
+        <v>0.46796812959401779</v>
+      </c>
+      <c r="C97">
+        <v>0.011792769062935896</v>
+      </c>
+      <c r="D97">
+        <v>0.044611036296366834</v>
+      </c>
+      <c r="E97">
+        <v>0.32398242531135035</v>
+      </c>
+      <c r="F97">
+        <v>0.12953002993448662</v>
+      </c>
+      <c r="G97">
+        <v>0.022115609800842515</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B98">
+        <v>0.00013492051372203127</v>
+      </c>
+      <c r="C98">
+        <v>0.0018409571598713235</v>
+      </c>
+      <c r="D98">
+        <v>0.0055343006941968465</v>
+      </c>
+      <c r="E98">
+        <v>0.011244320781729626</v>
+      </c>
+      <c r="F98">
+        <v>0.98084228750493663</v>
+      </c>
+      <c r="G98">
+        <v>0.00040321334554362039</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B99">
+        <v>0.0082247199942321429</v>
+      </c>
+      <c r="C99">
+        <v>0.020139555287414332</v>
+      </c>
+      <c r="D99">
+        <v>0.0087130780256536779</v>
+      </c>
+      <c r="E99">
+        <v>0.23543674833907935</v>
+      </c>
+      <c r="F99">
+        <v>0.0013688469517681083</v>
+      </c>
+      <c r="G99">
+        <v>0.72611705140185234</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B100">
+        <v>0.016018983660190427</v>
+      </c>
+      <c r="C100">
+        <v>0.0042664970275022758</v>
+      </c>
+      <c r="D100">
+        <v>0.06378196949569144</v>
+      </c>
+      <c r="E100">
+        <v>0.019854221784131938</v>
+      </c>
+      <c r="F100">
+        <v>0.0028643450263852472</v>
+      </c>
+      <c r="G100">
+        <v>0.89321398300609878</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>